--- a/Design/DataTable/Monster/MonsterLaneBuff.xlsx
+++ b/Design/DataTable/Monster/MonsterLaneBuff.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\Monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1A4FA-EF58-4570-8843-3C8C71E2CD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C000F-D507-427B-BFA4-8556570EF0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02326DCA-5271-488C-921C-02C5416C2128}"/>
   </bookViews>
@@ -243,118 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전체 체력 힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 체력 딜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 방어구 힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 방어구 딜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 방어력 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 방어력 너프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물 체력 힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅 체력 힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불 체력 힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기 체력 힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물 체력 딜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅 체력 딜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불 체력 딜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기 체력 딜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물 방어력 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅 방어력 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불 방어력 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기 방어력 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물 방어력 너프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅 방어력 너프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불 방어력 너프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기 방어력 너프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모래시계 타워 슬로우 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독 타워 데미지 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화살 타워 데미지 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염방사 타워 데미지 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이저 타워 데미지 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사일 타워 데미지 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FireDealHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,6 +252,118 @@
   </si>
   <si>
     <t>Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 체력 중 10%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 체력 중 7%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 방어구 중 5%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 방어구 중 5%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 8초간 몬스터의 방어력이 10% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 8초간 몬스터의 방어력이 10% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 물 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 흙 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 불 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 전기 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 물 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 흙 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 불 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 전기 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 물 속성 몬스터의 방어력이 7% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 흙 속성 몬스터의 방어력이 7% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 불 속성 몬스터의 방어력이 7% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 전기 속성 몬스터의 방어력이 7% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 물 속성 몬스터의 방어력이 7% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 흙 속성 몬스터의 방어력이 7% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 불 속성 몬스터의 방어력이 7% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 전기 속성 몬스터의 방어력이 7% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 화살타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나는 동안 이동속도가 5% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 초당 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 레이저타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 미사일타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 화염방사타워에서 받는 데미지가 5% 증가함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,12 +396,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -410,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -421,6 +436,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,14 +758,14 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:M30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="16.09765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.296875" style="2" customWidth="1"/>
     <col min="4" max="7" width="8.796875" style="2"/>
     <col min="8" max="10" width="8.796875" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.3984375" style="2" customWidth="1"/>
@@ -793,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -834,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -844,12 +862,10 @@
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="2" t="b">
         <v>1</v>
       </c>
@@ -885,12 +901,10 @@
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
@@ -926,12 +940,10 @@
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
@@ -967,12 +979,10 @@
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="2" t="b">
         <v>1</v>
       </c>
@@ -1008,12 +1018,10 @@
       <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
@@ -1049,12 +1057,10 @@
       <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="C8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="2" t="b">
         <v>1</v>
       </c>
@@ -1090,12 +1096,10 @@
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="3" t="b">
         <v>1</v>
       </c>
@@ -1131,12 +1135,10 @@
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="3" t="b">
         <v>0</v>
       </c>
@@ -1172,12 +1174,10 @@
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="3" t="b">
         <v>0</v>
       </c>
@@ -1213,12 +1213,10 @@
       <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="3" t="b">
         <v>0</v>
       </c>
@@ -1254,12 +1252,10 @@
       <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="3" t="b">
         <v>1</v>
       </c>
@@ -1295,12 +1291,10 @@
       <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="3" t="b">
         <v>0</v>
       </c>
@@ -1334,14 +1328,12 @@
         <v>202131</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="3" t="b">
         <v>0</v>
       </c>
@@ -1377,12 +1369,10 @@
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="3" t="b">
         <v>0</v>
       </c>
@@ -1418,12 +1408,10 @@
       <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="3" t="b">
         <v>1</v>
       </c>
@@ -1459,12 +1447,10 @@
       <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="3" t="b">
         <v>0</v>
       </c>
@@ -1500,12 +1486,10 @@
       <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="3" t="b">
         <v>0</v>
       </c>
@@ -1541,12 +1525,10 @@
       <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="3" t="b">
         <v>0</v>
       </c>
@@ -1582,12 +1564,10 @@
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="3" t="b">
         <v>1</v>
       </c>
@@ -1623,12 +1603,10 @@
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="3" t="b">
         <v>0</v>
       </c>
@@ -1664,12 +1642,10 @@
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="3" t="b">
         <v>0</v>
       </c>
@@ -1705,12 +1681,10 @@
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="3" t="b">
         <v>0</v>
       </c>
@@ -1746,12 +1720,10 @@
       <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="C25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="3" t="b">
         <v>1</v>
       </c>
@@ -1787,12 +1759,10 @@
       <c r="B26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="C26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="3" t="b">
         <v>1</v>
       </c>
@@ -1828,12 +1798,10 @@
       <c r="B27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="C27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="3" t="b">
         <v>1</v>
       </c>
@@ -1869,12 +1837,10 @@
       <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="C28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="3" t="b">
         <v>1</v>
       </c>
@@ -1910,12 +1876,10 @@
       <c r="B29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="C29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="3" t="b">
         <v>1</v>
       </c>
@@ -1951,12 +1915,10 @@
       <c r="B30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="C30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="3" t="b">
         <v>1</v>
       </c>
@@ -1986,6 +1948,36 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Design/DataTable/Monster/MonsterLaneBuff.xlsx
+++ b/Design/DataTable/Monster/MonsterLaneBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\Monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C000F-D507-427B-BFA4-8556570EF0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95C6594-152D-45FC-B273-9101EB7417F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02326DCA-5271-488C-921C-02C5416C2128}"/>
   </bookViews>
@@ -438,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,7 +758,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D3" sqref="D3:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -865,7 +865,9 @@
       <c r="C3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E3" s="2" t="b">
         <v>1</v>
       </c>
@@ -904,7 +906,9 @@
       <c r="C4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
@@ -943,7 +947,9 @@
       <c r="C5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
@@ -982,7 +988,9 @@
       <c r="C6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" s="2" t="b">
         <v>1</v>
       </c>
@@ -1021,7 +1029,9 @@
       <c r="C7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
@@ -1060,7 +1070,9 @@
       <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E8" s="2" t="b">
         <v>1</v>
       </c>
@@ -1099,7 +1111,9 @@
       <c r="C9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E9" s="3" t="b">
         <v>1</v>
       </c>
@@ -1138,7 +1152,9 @@
       <c r="C10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
       </c>
@@ -1177,7 +1193,9 @@
       <c r="C11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
       </c>
@@ -1216,7 +1234,9 @@
       <c r="C12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
       </c>
@@ -1255,7 +1275,9 @@
       <c r="C13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E13" s="3" t="b">
         <v>1</v>
       </c>
@@ -1294,7 +1316,9 @@
       <c r="C14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
       </c>
@@ -1333,7 +1357,9 @@
       <c r="C15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
       </c>
@@ -1372,7 +1398,9 @@
       <c r="C16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
       </c>
@@ -1411,7 +1439,9 @@
       <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E17" s="3" t="b">
         <v>1</v>
       </c>
@@ -1450,7 +1480,9 @@
       <c r="C18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
       </c>
@@ -1489,7 +1521,9 @@
       <c r="C19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
       </c>
@@ -1528,7 +1562,9 @@
       <c r="C20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
       </c>
@@ -1567,7 +1603,9 @@
       <c r="C21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E21" s="3" t="b">
         <v>1</v>
       </c>
@@ -1606,7 +1644,9 @@
       <c r="C22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
       </c>
@@ -1645,7 +1685,9 @@
       <c r="C23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
       </c>
@@ -1684,7 +1726,9 @@
       <c r="C24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E24" s="3" t="b">
         <v>0</v>
       </c>
@@ -1723,7 +1767,9 @@
       <c r="C25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E25" s="3" t="b">
         <v>1</v>
       </c>
@@ -1762,7 +1808,9 @@
       <c r="C26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E26" s="3" t="b">
         <v>1</v>
       </c>
@@ -1801,7 +1849,9 @@
       <c r="C27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E27" s="3" t="b">
         <v>1</v>
       </c>
@@ -1840,7 +1890,9 @@
       <c r="C28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E28" s="3" t="b">
         <v>1</v>
       </c>
@@ -1879,7 +1931,9 @@
       <c r="C29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E29" s="3" t="b">
         <v>1</v>
       </c>
@@ -1918,7 +1972,9 @@
       <c r="C30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E30" s="3" t="b">
         <v>1</v>
       </c>
@@ -1948,36 +2004,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
